--- a/biology/Botanique/Asplenium_rhizophyllum/Asplenium_rhizophyllum.xlsx
+++ b/biology/Botanique/Asplenium_rhizophyllum/Asplenium_rhizophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asplenium rhizophyllum, appelée Doradille ambulante, est une fougère de la famille des Aspleniaceae. Cette espèce possèderait de nombreuses variétés, mais la subdivision de cette espèce est encore sujette à discussions.
 </t>
@@ -508,71 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Description morphologique</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Appareil végétatif
-Appareil reproducteur</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Asplenium_rhizophyllum</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asplenium_rhizophyllum</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Asplenium_rhizophyllum</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asplenium_rhizophyllum</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hybrides</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
